--- a/demo_01.xlsx
+++ b/demo_01.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri003\Documents\Programming\ScheduleTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA69F7E6-78DF-451B-83EE-F5BEEFF25940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CE14B3-EE8C-4A88-B187-9D9A9308158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="5190" windowWidth="23955" windowHeight="14790" xr2:uid="{201104C0-7AE2-4FCA-8ECB-43CCA19E3A1D}"/>
+    <workbookView xWindow="-9165" yWindow="6045" windowWidth="17205" windowHeight="21600" activeTab="1" xr2:uid="{201104C0-7AE2-4FCA-8ECB-43CCA19E3A1D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +32,78 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Assign</t>
+  </si>
+  <si>
+    <t>Man-hours</t>
+  </si>
+  <si>
+    <t>Start Day</t>
+  </si>
+  <si>
+    <t>End Day</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>Kenta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>On-Going</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check items</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kenta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Urgency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52,12 +125,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,9 +153,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,15 +486,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F36D39C-9911-450F-AB98-9F5E7EEF6A1C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="220" width="5.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>123</v>
+    <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>11</v>
+      </c>
+      <c r="R4" s="1">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1">
+        <v>13</v>
+      </c>
+      <c r="T4" s="1">
+        <v>14</v>
+      </c>
+      <c r="U4" s="1">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1">
+        <v>16</v>
+      </c>
+      <c r="W4" s="1">
+        <v>17</v>
+      </c>
+      <c r="X4" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>29</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44410</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44410</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44414</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44420</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44421</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44421</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85723E04-F567-461F-823C-528980E76776}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/demo_01.xlsx
+++ b/demo_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri003\Documents\Programming\ScheduleTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CE14B3-EE8C-4A88-B187-9D9A9308158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19DD9DD-41EE-4D38-A779-00275E122A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9165" yWindow="6045" windowWidth="17205" windowHeight="21600" activeTab="1" xr2:uid="{201104C0-7AE2-4FCA-8ECB-43CCA19E3A1D}"/>
+    <workbookView xWindow="-9165" yWindow="6045" windowWidth="17205" windowHeight="21600" xr2:uid="{201104C0-7AE2-4FCA-8ECB-43CCA19E3A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F36D39C-9911-450F-AB98-9F5E7EEF6A1C}">
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -794,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85723E04-F567-461F-823C-528980E76776}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
